--- a/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:04:41+00:00</t>
+    <t>2025-07-28T13:13:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:13:45+00:00</t>
+    <t>2025-07-28T13:15:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:15:42+00:00</t>
+    <t>2025-07-28T13:16:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:41+00:00</t>
+    <t>2025-07-28T13:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:25:08+00:00</t>
+    <t>2025-07-28T13:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/PersonnePhysique</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/PersonnePhysique</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:28:11+00:00</t>
+    <t>2025-07-28T15:40:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -318,13 +318,13 @@
     <t>Sexe de la personne physique, notamment masculin, féminin, inconnu.Attribut associé aux nomenclatures suivantes : ** CodeSystem-TRE-R249-Sexe : représentation des sexes humains par un code alphabétique** CodeSystem-TRE-R267-SexeProvenanceISO : norme ISO 5218 qui définit la représentation des sexes humains par un code numérique** CodeSystem-TRE-R303-HL7v3AdministrativeGender : reprise de la terminologie HL7 v3 AdministrativeGender** ConceptMap-ASS-A15-SexeProvenanceISO-Sexe : table d'association entre les nomenclatures CodeSystem-TRE-R267-SexeProvenanceISO, CodeSystem-TRE-R249-Sexe</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/sexe-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/sexe-vs</t>
   </si>
   <si>
     <t>PersonnePhysique.langueParlee</t>
   </si>
   <si>
-    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/LangueParlee
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/LangueParlee
 </t>
   </si>
   <si>
@@ -377,7 +377,7 @@
     <t>Pays de naissance de la personne.Code officiel géographique (COG) du pays.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/paysNaissance-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/paysNaissance-vs</t>
   </si>
   <si>
     <t>PersonnePhysique.lieuNaissance</t>
@@ -386,7 +386,7 @@
     <t>Lieu de naissance de la personne.Code officiel géographique (COG) de la commune (France) ou du pays.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/lieuNaissance-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/lieuNaissance-vs</t>
   </si>
   <si>
     <t>PersonnePhysique.statutEtatCivil</t>
@@ -416,7 +416,7 @@
     <t>Pays de nationalité actuelle ou rattachement de la nationalité à un espace de pays conventionné.Attribut associé aux nomenclatures suivantes :**CodeSystem-TRE-R268-PaysProvenanceISO : provient de la norme ISO 3166-1 (code alpha-2) qui définit la représentation des noms de pays par un code à deux lettres**CodeSystem-TRE-R20-Pays : provient du code officiel géographique (COG)**CodeSystem-TRE-R89-RegroupementPays : espace de pays conventionné</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/paysNationalite-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/paysNationalite-vs</t>
   </si>
   <si>
     <t>PersonnePhysique.paysResidence</t>
@@ -434,7 +434,7 @@
     <t>Profession et catégorie socio-professionnelle de la personne (PCS). Ce code provient de la nomenclature des professions et catégories socioprofessionnelles (PCS) de l'INSEE.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/professionCategorieSocioProfessionnelle-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/professionCategorieSocioProfessionnelle-vs</t>
   </si>
   <si>
     <t>PersonnePhysique.causeMortalite</t>
@@ -790,7 +790,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.76953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:40:53+00:00</t>
+    <t>2025-07-28T15:46:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:46:53+00:00</t>
+    <t>2025-07-29T07:47:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
+++ b/nr-update-schemas/ig/StructureDefinition-PersonnePhysique.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:47:20+00:00</t>
+    <t>2025-08-04T15:47:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
